--- a/draft/figure/Graph/realtask/xls/Memcpy_memswap_HtoD.xlsx
+++ b/draft/figure/Graph/realtask/xls/Memcpy_memswap_HtoD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28960" yWindow="-440" windowWidth="13820" windowHeight="14940" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="31460" yWindow="3660" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DMA" sheetId="9" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="GPC4" sheetId="14" r:id="rId6"/>
     <sheet name="グラフ" sheetId="7" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1447,11 +1450,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2045269144"/>
-        <c:axId val="-2128902312"/>
+        <c:axId val="2107776568"/>
+        <c:axId val="2107782328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045269144"/>
+        <c:axId val="2107776568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1493,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128902312"/>
+        <c:crossAx val="2107782328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1499,7 +1502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128902312"/>
+        <c:axId val="2107782328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -1530,7 +1533,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045269144"/>
+        <c:crossAx val="2107776568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3583,11 +3586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2045259416"/>
-        <c:axId val="-2095643784"/>
+        <c:axId val="2108460488"/>
+        <c:axId val="2098878360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2045259416"/>
+        <c:axId val="2108460488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3626,7 +3629,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095643784"/>
+        <c:crossAx val="2098878360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3635,7 +3638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2095643784"/>
+        <c:axId val="2098878360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -3666,7 +3669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2045259416"/>
+        <c:crossAx val="2108460488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4773,11 +4776,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127454360"/>
-        <c:axId val="-2067682744"/>
+        <c:axId val="2121526408"/>
+        <c:axId val="2099254808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127454360"/>
+        <c:axId val="2121526408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4817,7 +4820,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067682744"/>
+        <c:crossAx val="2099254808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4826,7 +4829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067682744"/>
+        <c:axId val="2099254808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -4858,7 +4861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127454360"/>
+        <c:crossAx val="2121526408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4925,9 +4928,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0708867236919126"/>
-          <c:y val="0.087189292543021"/>
-          <c:w val="0.900063634132065"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
           <c:h val="0.775684760917655"/>
         </c:manualLayout>
       </c:layout>
@@ -5896,11 +5899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066925960"/>
-        <c:axId val="-2067506600"/>
+        <c:axId val="2127761448"/>
+        <c:axId val="2102556456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066925960"/>
+        <c:axId val="2127761448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5931,25 +5934,25 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-1500000"/>
+          <a:bodyPr rot="-1080000"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2200"/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2067506600"/>
+        <c:crossAx val="2102556456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2067506600"/>
+        <c:axId val="2102556456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -5964,13 +5967,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Data Transfer Time ( ms )</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1600"/>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -5981,17 +5984,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066925960"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127761448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -5999,10 +6005,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0816846994845069"/>
-          <c:y val="0.112348955902501"/>
-          <c:w val="0.117356067901584"/>
-          <c:h val="0.221955857334277"/>
+          <c:x val="0.112490390715379"/>
+          <c:y val="0.0809147162105719"/>
+          <c:w val="0.149332387953875"/>
+          <c:h val="0.300541280571756"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6011,17 +6017,34 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -6055,9 +6078,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0708867236919126"/>
-          <c:y val="0.087189292543021"/>
-          <c:w val="0.900063634132065"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
           <c:h val="0.775684760917655"/>
         </c:manualLayout>
       </c:layout>
@@ -7026,11 +7049,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2066879416"/>
-        <c:axId val="-2066806632"/>
+        <c:axId val="2127391720"/>
+        <c:axId val="2127512648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2066879416"/>
+        <c:axId val="2127391720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7061,25 +7084,25 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
-          <a:bodyPr rot="-1500000"/>
+          <a:bodyPr rot="-1080000"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="2200"/>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2066806632"/>
+        <c:crossAx val="2127512648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2066806632"/>
+        <c:axId val="2127512648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3.0"/>
@@ -7094,13 +7117,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600"/>
+                  <a:defRPr sz="2400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Data Transfer Time ( ms )</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" sz="1600"/>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -7111,17 +7134,20 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2066879416"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2127391720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -7129,10 +7155,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0816846994845069"/>
-          <c:y val="0.112348955902501"/>
-          <c:w val="0.117356067901584"/>
-          <c:h val="0.221955857334277"/>
+          <c:x val="0.112490390715379"/>
+          <c:y val="0.0809147162105719"/>
+          <c:w val="0.149332387953875"/>
+          <c:h val="0.300541280571756"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7141,17 +7167,34 @@
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -7327,6 +7370,29 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DMA"/>
+      <sheetName val="IORW"/>
+      <sheetName val="PMEM"/>
+      <sheetName val="HUB"/>
+      <sheetName val="GPC"/>
+      <sheetName val="GPC4"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7653,8 +7719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:X109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -16861,7 +16927,7 @@
         <v>0</v>
       </c>
       <c r="Z7" s="2" t="e">
-        <f t="shared" ref="W7:Z7" si="5">MAX(Z10:Z109)-Z9</f>
+        <f t="shared" ref="Z7" si="5">MAX(Z10:Z109)-Z9</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -32295,7 +32361,7 @@
         <v>829.61102300000005</v>
       </c>
       <c r="Y7" s="2" t="e">
-        <f t="shared" ref="X7:Z7" si="5">MAX(Y10:Y109)-Y9</f>
+        <f t="shared" ref="Y7:Z7" si="5">MAX(Y10:Y109)-Y9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z7" s="2" t="e">
@@ -48933,7 +48999,7 @@
         <v>298.04901100000001</v>
       </c>
       <c r="Y7" s="2" t="e">
-        <f t="shared" ref="X7:Z7" si="5">MAX(Y10:Y109)-Y9</f>
+        <f t="shared" ref="Y7:Z7" si="5">MAX(Y10:Y109)-Y9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Z7" s="2" t="e">
@@ -56567,8 +56633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K92" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="O87" sqref="O87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
